--- a/ReFrameWork-master - Spotify/Data/Config.xlsx
+++ b/ReFrameWork-master - Spotify/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -117,9 +117,6 @@
     <t>SpotifyURL</t>
   </si>
   <si>
-    <t>https://open.spotify.com/</t>
-  </si>
-  <si>
     <t>SongsDownloadPath</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>https://ytmp3.cc/en13/</t>
+  </si>
+  <si>
+    <t>SpotifyCredential</t>
+  </si>
+  <si>
+    <t>Spotify login credential</t>
+  </si>
+  <si>
+    <t>https://accounts.spotify.com/en/login</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -590,10 +596,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -609,35 +615,35 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2759,7 +2765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2803,7 +2811,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
